--- a/src/uploads/thoikhoabieu_gv.xlsx
+++ b/src/uploads/thoikhoabieu_gv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="108">
   <si>
     <t>TT</t>
   </si>
@@ -170,6 +170,174 @@
   </si>
   <si>
     <t>Nguyễn Văn Khánh</t>
+  </si>
+  <si>
+    <t># id, time, time_start, days_of_the_week, sessions_during_the_day, total_hours_of_study</t>
+  </si>
+  <si>
+    <t>45', 'MON: 06:45 AM -- 09:00 AM', '1', 'thứ 2', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>46', 'MON: 09:20 AM -- 11:35 AM', '4', 'thứ 2', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>47', 'MON: 12:30 PM -- 14:45 PM', '7', 'thứ 2', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>48', 'MON: 15:05 PM -- 17:20 PM', '10', 'thứ 2', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>49', 'TUE: 06:45 AM -- 09:00 AM', '1', 'thứ 3', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>50', 'TUE: 09:20 AM -- 11:35 AM', '4', 'thứ 3', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>51', 'TUE: 12:30 PM -- 14:45 PM', '7', 'thứ 3', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>52', 'TUE: 15:05 PM -- 17:20 PM', '10', 'thứ 3', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>53', 'WED: 06:45 AM -- 09:00 AM', '1', 'thứ 4', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>54', 'WED: 09:20 AM -- 11:35 AM', '4', 'thứ 4', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>55', 'WED: 12:30 PM -- 14:45 PM', '7', 'thứ 4', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>56', 'WED: 15:05 PM -- 17:20 PM', '10', 'thứ 4', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>57', 'THU: 06:45 AM -- 09:00 AM', '1', 'thứ 5', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>58', 'THU: 09:20 AM -- 11:35 AM', '4', 'thứ 5', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>59', 'THU: 12:30 PM -- 14:45 PM', '7', 'thứ 5', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>60', 'THU: 15:05 PM -- 17:20 PM', '10', 'thứ 5', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>61', 'FRI: 06:45 AM -- 09:00 AM', '1', 'thứ 6', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>62', 'FRI: 09:20 AM -- 11:35 AM', '4', 'thứ 6', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>63', 'FRI: 12:30 PM -- 14:45 PM', '7', 'thứ 6', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>64', 'FRI: 15:05 PM -- 17:20 PM', '10', 'thứ 6', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>65', 'SAT: 06:45 AM -- 09:00 AM', '1', 'thứ 7', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>66', 'SAT: 09:20 AM -- 11:35 AM', '4', 'thứ 7', 'sáng', '3'</t>
+  </si>
+  <si>
+    <t>67', 'SAT: 12:30 PM -- 14:45 PM', '7', 'thứ 7', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t>68', 'SAT: 15:05 PM -- 17:20 PM', '10', 'thứ 7', 'chiều', '3'</t>
+  </si>
+  <si>
+    <t># id, room_name, capacity, area_id</t>
+  </si>
+  <si>
+    <t>1', 'A-02-01', '80', '1'</t>
+  </si>
+  <si>
+    <t>2', 'A-02-02', '80', '1'</t>
+  </si>
+  <si>
+    <t>3', 'A-02-03', '80', '1'</t>
+  </si>
+  <si>
+    <t>6', 'A-03-01', '80', '1'</t>
+  </si>
+  <si>
+    <t>7', 'A-03-02', '80', '1'</t>
+  </si>
+  <si>
+    <t>8', 'A-03-03', '80', '1'</t>
+  </si>
+  <si>
+    <t>11', 'A-04-01', '80', '1'</t>
+  </si>
+  <si>
+    <t>12', 'A-04-02', '80', '1'</t>
+  </si>
+  <si>
+    <t>13', 'A-04-03', '80', '1'</t>
+  </si>
+  <si>
+    <t>21', 'B-02-01', '80', '2'</t>
+  </si>
+  <si>
+    <t>22', 'B-02-02', '80', '2'</t>
+  </si>
+  <si>
+    <t>23', 'B-02-03', '80', '2'</t>
+  </si>
+  <si>
+    <t>26', 'B-03-01', '80', '2'</t>
+  </si>
+  <si>
+    <t>27', 'B-03-02', '80', '2'</t>
+  </si>
+  <si>
+    <t>28', 'B-03-03', '80', '2'</t>
+  </si>
+  <si>
+    <t>31', 'B-04-01', '80', '2'</t>
+  </si>
+  <si>
+    <t>32', 'B-04-02', '80', '2'</t>
+  </si>
+  <si>
+    <t>33', 'B-04-03', '80', '2'</t>
+  </si>
+  <si>
+    <t>34', 'E-02-01', '80', '4'</t>
+  </si>
+  <si>
+    <t>35', 'E-02-02', '80', '4'</t>
+  </si>
+  <si>
+    <t>36', 'E-02-03', '80', '4'</t>
+  </si>
+  <si>
+    <t>37', 'E-03-01', '80', '4'</t>
+  </si>
+  <si>
+    <t>38', 'E-03-02', '80', '4'</t>
+  </si>
+  <si>
+    <t>39', 'E-03-03', '80', '4'</t>
+  </si>
+  <si>
+    <t>40', 'E-04-01', '80', '4'</t>
+  </si>
+  <si>
+    <t>41', 'E-04-02', '80', '4'</t>
+  </si>
+  <si>
+    <t>42', 'E-04-03', '80', '4'</t>
+  </si>
+  <si>
+    <t>43', 'E-05-01', '80', '4'</t>
+  </si>
+  <si>
+    <t>44', 'E-05-02', '80', '4'</t>
+  </si>
+  <si>
+    <t>45', 'E-05-03', '80', '4'</t>
   </si>
 </sst>
 </file>
@@ -177,10 +345,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -224,38 +392,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +440,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,13 +484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,25 +492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,24 +507,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,6 +549,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,7 +585,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +657,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,25 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,103 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +784,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,21 +873,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -669,189 +881,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,6 +1043,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,10 +1305,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="15.75" customHeight="1"/>
@@ -2957,6 +3126,286 @@
         <v>22</v>
       </c>
     </row>
+    <row r="51" customHeight="1" spans="1:1">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:1">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:1">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:1">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:1">
+      <c r="A56" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:1">
+      <c r="A57" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:1">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:1">
+      <c r="A60" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:1">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:1">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:1">
+      <c r="A63" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:1">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:1">
+      <c r="A66" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:1">
+      <c r="A69" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:1">
+      <c r="A72" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:1">
+      <c r="A73" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:1">
+      <c r="A74" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:1">
+      <c r="A75" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:1">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:1">
+      <c r="A82" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:1">
+      <c r="A83" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:1">
+      <c r="A84" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:1">
+      <c r="A85" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:1">
+      <c r="A86" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:1">
+      <c r="A87" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:1">
+      <c r="A88" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:1">
+      <c r="A89" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:1">
+      <c r="A90" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:1">
+      <c r="A91" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:1">
+      <c r="A92" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:1">
+      <c r="A93" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:1">
+      <c r="A94" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:1">
+      <c r="A95" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:1">
+      <c r="A96" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:1">
+      <c r="A97" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:1">
+      <c r="A98" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:1">
+      <c r="A99" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:1">
+      <c r="A100" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:1">
+      <c r="A101" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:1">
+      <c r="A102" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:1">
+      <c r="A103" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:1">
+      <c r="A104" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:1">
+      <c r="A105" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:1">
+      <c r="A106" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:1">
+      <c r="A107" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:1">
+      <c r="A108" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:1">
+      <c r="A109" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:1">
+      <c r="A110" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:1">
+      <c r="A111" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
